--- a/Heads_Contacts.xlsx
+++ b/Heads_Contacts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -60,9 +60,6 @@
     <t>https://www.linkedin.com/in/anandhu-s-kumar-a94a8a18b/</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1rYYQksMhEiLX47ld0j3QG5hiyTcvXBHK/view?usp=sharing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nilesh Chaurasia </t>
   </si>
   <si>
@@ -238,13 +235,22 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eFCet7uAvNrSYBgoRypf3xq1k5rYnxCJ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LJrEVN8h_CP-UL6H3mdY3aO1bbfnH_zw/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Anandhu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -273,6 +279,12 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -295,13 +307,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -584,7 +597,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -667,132 +680,138 @@
       <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D3" s="3">
         <v>6388108041</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="3">
         <v>9340480050</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D5" s="3">
         <v>9630558762</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D6" s="3">
         <v>9415676053</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D7" s="3">
         <v>9874472157</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>73</v>
@@ -800,162 +819,162 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="3">
         <v>7240208867</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D9" s="3">
         <v>9784118773</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D10" s="3">
         <v>8584827368</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="H10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D11" s="3">
         <v>9421630066</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="H11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D12" s="3">
         <v>9405626618</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="H2" r:id="rId3"/>
-    <hyperlink ref="F3" r:id="rId4"/>
-    <hyperlink ref="G3" r:id="rId5"/>
-    <hyperlink ref="F4" r:id="rId6"/>
-    <hyperlink ref="G4" r:id="rId7"/>
-    <hyperlink ref="F5" r:id="rId8"/>
-    <hyperlink ref="F6" r:id="rId9"/>
-    <hyperlink ref="G6" r:id="rId10"/>
-    <hyperlink ref="F7" r:id="rId11"/>
-    <hyperlink ref="G7" r:id="rId12"/>
-    <hyperlink ref="F8" r:id="rId13"/>
-    <hyperlink ref="G8" r:id="rId14"/>
-    <hyperlink ref="F9" r:id="rId15"/>
-    <hyperlink ref="G9" r:id="rId16"/>
-    <hyperlink ref="F10" r:id="rId17"/>
-    <hyperlink ref="F11" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="F12" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="H9" r:id="rId22"/>
-    <hyperlink ref="H8" r:id="rId23"/>
-    <hyperlink ref="H3" r:id="rId24"/>
-    <hyperlink ref="H4:H7" r:id="rId25" display="https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing"/>
-    <hyperlink ref="H10" r:id="rId26"/>
-    <hyperlink ref="H11:H12" r:id="rId27" display="https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="F4" r:id="rId5"/>
+    <hyperlink ref="G4" r:id="rId6"/>
+    <hyperlink ref="F5" r:id="rId7"/>
+    <hyperlink ref="F6" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="F7" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="F8" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="F9" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="F10" r:id="rId16"/>
+    <hyperlink ref="F11" r:id="rId17"/>
+    <hyperlink ref="G11" r:id="rId18"/>
+    <hyperlink ref="F12" r:id="rId19"/>
+    <hyperlink ref="G12" r:id="rId20"/>
+    <hyperlink ref="H9" r:id="rId21"/>
+    <hyperlink ref="H8" r:id="rId22"/>
+    <hyperlink ref="H3" r:id="rId23"/>
+    <hyperlink ref="H10" r:id="rId24"/>
+    <hyperlink ref="H11:H12" r:id="rId25" display="https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing"/>
+    <hyperlink ref="H7" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/Heads_Contacts.xlsx
+++ b/Heads_Contacts.xlsx
@@ -240,10 +240,10 @@
     <t>https://drive.google.com/file/d/1eFCet7uAvNrSYBgoRypf3xq1k5rYnxCJ/view?usp=sharing</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1LJrEVN8h_CP-UL6H3mdY3aO1bbfnH_zw/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Anandhu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1v8kmYvQ_KewMTjMy-DNFIUHImLKlkaxv/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -681,13 +681,13 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="L2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">

--- a/Heads_Contacts.xlsx
+++ b/Heads_Contacts.xlsx
@@ -243,7 +243,7 @@
     <t>Anandhu</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1v8kmYvQ_KewMTjMy-DNFIUHImLKlkaxv/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1gyShMR0Y3PcOuY5UlqQxGJWDz6Bn3IMY/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Heads_Contacts.xlsx
+++ b/Heads_Contacts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Alakh Dixit</t>
   </si>
   <si>
-    <t>Mining/Financial Engineering</t>
-  </si>
-  <si>
     <t xml:space="preserve">alakhdixit1999@gmail.com </t>
   </si>
   <si>
@@ -96,33 +93,18 @@
     <t>https://www.linkedin.com/in/alakh-dixit/</t>
   </si>
   <si>
-    <t>Apurv sharma</t>
-  </si>
-  <si>
-    <t>industrial  and systems engineering</t>
-  </si>
-  <si>
     <t xml:space="preserve">apurv.9468@gmail.com </t>
   </si>
   <si>
-    <t>design head</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/apurv.sharma.9237</t>
   </si>
   <si>
     <t>Arnab Kumar Kundu</t>
   </si>
   <si>
-    <t>aerospace engineering</t>
-  </si>
-  <si>
     <t>arnab.kkundu2007@gmail.com</t>
   </si>
   <si>
-    <t>event manager head</t>
-  </si>
-  <si>
     <t>https://m.facebook.com/arnab.kundu.75491</t>
   </si>
   <si>
@@ -219,9 +201,6 @@
     <t>Vivek Shirode</t>
   </si>
   <si>
-    <t>Chemical engineering</t>
-  </si>
-  <si>
     <t>vivekashirode@gmail.com</t>
   </si>
   <si>
@@ -244,6 +223,21 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1gyShMR0Y3PcOuY5UlqQxGJWDz6Bn3IMY/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Apurv Sharma</t>
+  </si>
+  <si>
+    <t>Chemical Engineering</t>
+  </si>
+  <si>
+    <t>Industrial  and Systems Engineering</t>
+  </si>
+  <si>
+    <t>Mining/ Financial Engineering</t>
+  </si>
+  <si>
+    <t>Event Manager Head</t>
   </si>
 </sst>
 </file>
@@ -597,7 +591,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -606,7 +600,7 @@
     <col min="2" max="2" width="33.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
     <col min="6" max="6" width="44.140625" customWidth="1"/>
     <col min="7" max="7" width="51.42578125" customWidth="1"/>
     <col min="8" max="8" width="44" customWidth="1"/>
@@ -681,13 +675,13 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -713,7 +707,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -721,227 +715,227 @@
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="3">
         <v>9340480050</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3">
         <v>9630558762</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3">
         <v>9415676053</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3">
         <v>9874472157</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3">
         <v>7240208867</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3">
         <v>9784118773</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3">
         <v>8584827368</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3">
         <v>9421630066</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3">
         <v>9405626618</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Heads_Contacts.xlsx
+++ b/Heads_Contacts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>Event Manager Head</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/apurv-sharma-a6a515176/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/himadri-saha-b130b9174/</t>
   </si>
 </sst>
 </file>
@@ -589,9 +595,9 @@
   </sheetPr>
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -755,6 +761,9 @@
       <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="G5" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="H5" s="5" t="s">
         <v>65</v>
       </c>
@@ -881,6 +890,9 @@
       </c>
       <c r="F10" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>65</v>
@@ -966,9 +978,11 @@
     <hyperlink ref="H10" r:id="rId24"/>
     <hyperlink ref="H11:H12" r:id="rId25" display="https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing"/>
     <hyperlink ref="H7" r:id="rId26"/>
+    <hyperlink ref="G5" r:id="rId27"/>
+    <hyperlink ref="G10" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
 </worksheet>
 </file>
 

--- a/Heads_Contacts.xlsx
+++ b/Heads_Contacts.xlsx
@@ -595,9 +595,9 @@
   </sheetPr>
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Heads_Contacts.xlsx
+++ b/Heads_Contacts.xlsx
@@ -51,9 +51,6 @@
     <t>anandhu.nssc@gmail.com</t>
   </si>
   <si>
-    <t>General Secretary, Public Relations Head</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/anandhus.anandhu.94/</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>nileshchaurasia.nssc@gmail.com</t>
   </si>
   <si>
-    <t>General Secretary, Sponsorship &amp; Marketing Head</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/nilesh.chaurasia.505</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>ayushiprasad.nssc@gmail.com</t>
   </si>
   <si>
-    <t>Webinars Head, Project Coordinator</t>
-  </si>
-  <si>
     <t>https://m.facebook.com/ayushi.prasad.509511</t>
   </si>
   <si>
@@ -234,9 +225,6 @@
     <t>Industrial  and Systems Engineering</t>
   </si>
   <si>
-    <t>Mining/ Financial Engineering</t>
-  </si>
-  <si>
     <t>Event Manager Head</t>
   </si>
   <si>
@@ -244,6 +232,21 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/himadri-saha-b130b9174/</t>
+  </si>
+  <si>
+    <t>General Secretary &amp; 
+Public Relations Head</t>
+  </si>
+  <si>
+    <t>General Secretary &amp; 
+Sponsorship and Marketing Head</t>
+  </si>
+  <si>
+    <t>Webinars Head &amp; 
+Project Coordinator</t>
+  </si>
+  <si>
+    <t>Mining Engineering/ Financial Engineering</t>
   </si>
 </sst>
 </file>
@@ -307,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -315,6 +318,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -595,9 +601,9 @@
   </sheetPr>
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -658,7 +664,7 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -671,283 +677,283 @@
       <c r="D2" s="3">
         <v>7561018288</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="3">
         <v>6388108041</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="3">
         <v>9340480050</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3">
         <v>9630558762</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3">
         <v>9415676053</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="D7" s="3">
         <v>9874472157</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
+      <c r="E7" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3">
         <v>7240208867</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3">
         <v>9784118773</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3">
         <v>8584827368</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3">
         <v>9421630066</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3">
         <v>9405626618</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Heads_Contacts.xlsx
+++ b/Heads_Contacts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -247,6 +247,45 @@
   </si>
   <si>
     <t>Mining Engineering/ Financial Engineering</t>
+  </si>
+  <si>
+    <t>Jay Sharma</t>
+  </si>
+  <si>
+    <t>jay.sharmaiitkgp@gmail.con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicity Co-ordinator </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jay-sharma-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ekdVibzR0wmWqdQNF3LpsSpkUt4eyRwx/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Sahith Kumar</t>
+  </si>
+  <si>
+    <t>Instrumentation Engineering</t>
+  </si>
+  <si>
+    <t>sahith.nsssc@gmail.com</t>
+  </si>
+  <si>
+    <t>Public relations Head</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/jay.sharma.9465177</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sahith.kumar.999</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sahith-kumar-yedakula-386554183/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nhjrW_lmceRuORpMyYr-a97UlAbNMxEN/view?usp=drivesdk</t>
   </si>
 </sst>
 </file>
@@ -599,11 +638,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -618,7 +657,7 @@
     <col min="8" max="8" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +758,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
@@ -748,7 +787,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -774,7 +813,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -826,7 +865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -852,7 +891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -878,7 +917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -904,55 +943,107 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8349900709</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
         <v>9421630066</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="3">
+        <v>9951939997</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D14" s="3">
         <v>9405626618</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -974,21 +1065,22 @@
     <hyperlink ref="F9" r:id="rId14"/>
     <hyperlink ref="G9" r:id="rId15"/>
     <hyperlink ref="F10" r:id="rId16"/>
-    <hyperlink ref="F11" r:id="rId17"/>
-    <hyperlink ref="G11" r:id="rId18"/>
-    <hyperlink ref="F12" r:id="rId19"/>
-    <hyperlink ref="G12" r:id="rId20"/>
+    <hyperlink ref="F12" r:id="rId17"/>
+    <hyperlink ref="G12" r:id="rId18"/>
+    <hyperlink ref="F14" r:id="rId19"/>
+    <hyperlink ref="G14" r:id="rId20"/>
     <hyperlink ref="H9" r:id="rId21"/>
     <hyperlink ref="H8" r:id="rId22"/>
-    <hyperlink ref="H3" r:id="rId23"/>
-    <hyperlink ref="H10" r:id="rId24"/>
-    <hyperlink ref="H11:H12" r:id="rId25" display="https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing"/>
-    <hyperlink ref="H7" r:id="rId26"/>
-    <hyperlink ref="G5" r:id="rId27"/>
-    <hyperlink ref="G10" r:id="rId28"/>
+    <hyperlink ref="H10" r:id="rId23"/>
+    <hyperlink ref="H7" r:id="rId24"/>
+    <hyperlink ref="G5" r:id="rId25"/>
+    <hyperlink ref="G10" r:id="rId26"/>
+    <hyperlink ref="G11" r:id="rId27"/>
+    <hyperlink ref="H11" r:id="rId28"/>
+    <hyperlink ref="H3" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
 </worksheet>
 </file>
 

--- a/Heads_Contacts.xlsx
+++ b/Heads_Contacts.xlsx
@@ -642,7 +642,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Heads_Contacts.xlsx
+++ b/Heads_Contacts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -261,9 +261,6 @@
     <t>https://www.linkedin.com/in/jay-sharma-</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ekdVibzR0wmWqdQNF3LpsSpkUt4eyRwx/view?usp=drivesdk</t>
-  </si>
-  <si>
     <t>Sahith Kumar</t>
   </si>
   <si>
@@ -285,7 +282,10 @@
     <t>https://www.linkedin.com/in/sahith-kumar-yedakula-386554183/</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1nhjrW_lmceRuORpMyYr-a97UlAbNMxEN/view?usp=drivesdk</t>
+    <t>https://drive.google.com/file/d/1NYQcB7V8i6YR9RFKC7DqbRdxR8TFgWAB/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VG9P7mS6zM4-kN6FA3JwaStsUaPmtPaO/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -640,9 +640,9 @@
   </sheetPr>
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -725,10 +725,10 @@
       <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5" t="s">
         <v>65</v>
       </c>
       <c r="M2" s="6" t="s">
@@ -758,7 +758,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
@@ -960,13 +960,19 @@
         <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>79</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -997,25 +1003,25 @@
     </row>
     <row r="13" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>9951939997</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
         <v>86</v>
-      </c>
-      <c r="G13" t="s">
-        <v>87</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>62</v>
@@ -1076,11 +1082,12 @@
     <hyperlink ref="G5" r:id="rId25"/>
     <hyperlink ref="G10" r:id="rId26"/>
     <hyperlink ref="G11" r:id="rId27"/>
-    <hyperlink ref="H11" r:id="rId28"/>
-    <hyperlink ref="H3" r:id="rId29"/>
+    <hyperlink ref="L11" r:id="rId28"/>
+    <hyperlink ref="L2" r:id="rId29"/>
+    <hyperlink ref="H2" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
 </worksheet>
 </file>
 

--- a/Heads_Contacts.xlsx
+++ b/Heads_Contacts.xlsx
@@ -640,9 +640,9 @@
   </sheetPr>
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1082,12 +1082,11 @@
     <hyperlink ref="G5" r:id="rId25"/>
     <hyperlink ref="G10" r:id="rId26"/>
     <hyperlink ref="G11" r:id="rId27"/>
-    <hyperlink ref="L11" r:id="rId28"/>
-    <hyperlink ref="L2" r:id="rId29"/>
-    <hyperlink ref="H2" r:id="rId30"/>
+    <hyperlink ref="L2" r:id="rId28"/>
+    <hyperlink ref="H2" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
 </worksheet>
 </file>
 

--- a/Heads_Contacts.xlsx
+++ b/Heads_Contacts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/vivek-shirode-5b1725182</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1eFCet7uAvNrSYBgoRypf3xq1k5rYnxCJ/view?usp=sharing</t>
@@ -286,6 +283,48 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1VG9P7mS6zM4-kN6FA3JwaStsUaPmtPaO/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jJ6vGlZvj_xu2_WZoTFDBtL2GVuNPv3V/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Alakh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Oc77rXVvDBysJtJYZTsb6PLZXN5MyrdF/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Apurv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mYjilAxS5d3p7Bo8UvaKmZXP5y3sjBVz/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Arnab</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10BB2j_HZzlGFU4P6gXaDdsKWja7Nn8cm/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Himadri</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1W5H7gj5a3kZ4KP4WyuMyGllJcmy2FXHX/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Jus</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zOMTOa_K6Q_TYciNm_flUxMZrr8g6yYx/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Sahith</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1U1miB5pBfpopJ_4EHWP9uh2FVdKltf0q/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Vivek</t>
   </si>
 </sst>
 </file>
@@ -642,7 +681,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -717,7 +756,7 @@
         <v>7561018288</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>11</v>
@@ -726,13 +765,13 @@
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
@@ -749,7 +788,7 @@
         <v>6388108041</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>16</v>
@@ -758,7 +797,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
@@ -766,7 +805,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
@@ -784,15 +823,21 @@
         <v>22</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>62</v>
+        <v>88</v>
+      </c>
+      <c r="L4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>23</v>
@@ -807,10 +852,16 @@
         <v>24</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>62</v>
+        <v>90</v>
+      </c>
+      <c r="L5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -827,7 +878,7 @@
         <v>9415676053</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>27</v>
@@ -836,7 +887,13 @@
         <v>28</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>62</v>
+        <v>92</v>
+      </c>
+      <c r="L6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
@@ -853,7 +910,7 @@
         <v>9874472157</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>32</v>
@@ -862,7 +919,7 @@
         <v>33</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -937,42 +994,48 @@
         <v>51</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>62</v>
+        <v>94</v>
+      </c>
+      <c r="L10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="3">
         <v>8349900709</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="H11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -998,33 +1061,45 @@
         <v>56</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>62</v>
+        <v>96</v>
+      </c>
+      <c r="L12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D13" s="3">
         <v>9951939997</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
         <v>85</v>
       </c>
-      <c r="G13" t="s">
-        <v>86</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>62</v>
+        <v>98</v>
+      </c>
+      <c r="L13" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -1032,7 +1107,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>58</v>
@@ -1050,7 +1125,13 @@
         <v>61</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>62</v>
+        <v>100</v>
+      </c>
+      <c r="L14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1077,16 +1158,15 @@
     <hyperlink ref="G14" r:id="rId20"/>
     <hyperlink ref="H9" r:id="rId21"/>
     <hyperlink ref="H8" r:id="rId22"/>
-    <hyperlink ref="H10" r:id="rId23"/>
-    <hyperlink ref="H7" r:id="rId24"/>
-    <hyperlink ref="G5" r:id="rId25"/>
-    <hyperlink ref="G10" r:id="rId26"/>
-    <hyperlink ref="G11" r:id="rId27"/>
-    <hyperlink ref="L2" r:id="rId28"/>
-    <hyperlink ref="H2" r:id="rId29"/>
+    <hyperlink ref="H7" r:id="rId23"/>
+    <hyperlink ref="G5" r:id="rId24"/>
+    <hyperlink ref="G10" r:id="rId25"/>
+    <hyperlink ref="G11" r:id="rId26"/>
+    <hyperlink ref="L2" r:id="rId27"/>
+    <hyperlink ref="H2" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
 </worksheet>
 </file>
 

--- a/Heads_Contacts.xlsx
+++ b/Heads_Contacts.xlsx
@@ -291,9 +291,6 @@
     <t>Alakh</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Oc77rXVvDBysJtJYZTsb6PLZXN5MyrdF/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Apurv</t>
   </si>
   <si>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>Vivek</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DfPVh4XmTMDEJdOeqka4CRIAN_CRDT97/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -855,13 +855,13 @@
         <v>69</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" t="s">
         <v>90</v>
-      </c>
-      <c r="L5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -887,13 +887,13 @@
         <v>28</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" t="s">
         <v>92</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
@@ -997,13 +997,13 @@
         <v>70</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" t="s">
         <v>94</v>
-      </c>
-      <c r="L10" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -1061,13 +1061,13 @@
         <v>56</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" t="s">
         <v>96</v>
-      </c>
-      <c r="L12" t="s">
-        <v>96</v>
-      </c>
-      <c r="M12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -1093,13 +1093,13 @@
         <v>85</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" t="s">
         <v>98</v>
-      </c>
-      <c r="L13" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -1125,13 +1125,13 @@
         <v>61</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" t="s">
         <v>100</v>
-      </c>
-      <c r="L14" t="s">
-        <v>100</v>
-      </c>
-      <c r="M14" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
